--- a/classfiers/greedy/knn/greedy-knn-results.xlsx
+++ b/classfiers/greedy/knn/greedy-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6608695652173912</v>
+        <v>0.8333333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6652173913043479</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.8</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7065217391304348</v>
+        <v>0.9695652173913043</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7133333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5635294117647059</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8065217391304348</v>
+        <v>0.8939130434782608</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/knn/greedy-knn-results.xlsx
+++ b/classfiers/greedy/knn/greedy-knn-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9476190476190477</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.8125996810207335</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9695652173913043</v>
+        <v>0.8197767145135566</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.45</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.3857142857142858</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8939130434782608</v>
+        <v>0.8493324219640008</v>
       </c>
     </row>
   </sheetData>
